--- a/Code/Results/Cases/Case_1_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.301384672434324</v>
+        <v>1.323874002307434</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2154553729143203</v>
+        <v>0.1573910469263495</v>
       </c>
       <c r="E2">
-        <v>0.3548595433347188</v>
+        <v>0.2106255498562959</v>
       </c>
       <c r="F2">
-        <v>1.058375781260949</v>
+        <v>1.848000169810419</v>
       </c>
       <c r="G2">
-        <v>1.208642972093543</v>
+        <v>1.341898598714067</v>
       </c>
       <c r="H2">
-        <v>0.7050543908846691</v>
+        <v>1.220470549407452</v>
       </c>
       <c r="I2">
-        <v>0.319202031447293</v>
+        <v>1.071364875308631</v>
       </c>
       <c r="J2">
-        <v>0.5674819218810683</v>
+        <v>0.3078422427925744</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.362391813267152</v>
+        <v>0.6734733331329892</v>
       </c>
       <c r="M2">
-        <v>0.8715007734767894</v>
+        <v>0.4667821546985351</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.005931720262367</v>
+        <v>1.235439004134491</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1937891166737984</v>
+        <v>0.150591120474445</v>
       </c>
       <c r="E3">
-        <v>0.3193968662824744</v>
+        <v>0.199351563426525</v>
       </c>
       <c r="F3">
-        <v>0.9937806463411505</v>
+        <v>1.855328665068868</v>
       </c>
       <c r="G3">
-        <v>1.088132591852101</v>
+        <v>1.330238678936553</v>
       </c>
       <c r="H3">
-        <v>0.6591928203040993</v>
+        <v>1.222864123586305</v>
       </c>
       <c r="I3">
-        <v>0.3570771102350374</v>
+        <v>1.093660492588789</v>
       </c>
       <c r="J3">
-        <v>0.510562572281259</v>
+        <v>0.2895890715531664</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.184098546582049</v>
+        <v>0.6220564915655302</v>
       </c>
       <c r="M3">
-        <v>0.7586424921350599</v>
+        <v>0.4335791087960317</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.825338662675847</v>
+        <v>1.181256805577306</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1805833768967773</v>
+        <v>0.1463762148200374</v>
       </c>
       <c r="E4">
-        <v>0.2977030767956919</v>
+        <v>0.1923918558679532</v>
       </c>
       <c r="F4">
-        <v>0.9577432148842604</v>
+        <v>1.861297682897373</v>
       </c>
       <c r="G4">
-        <v>1.018034510572463</v>
+        <v>1.324344595726032</v>
       </c>
       <c r="H4">
-        <v>0.6331564916461474</v>
+        <v>1.225210864891849</v>
       </c>
       <c r="I4">
-        <v>0.3819074736425732</v>
+        <v>1.108137494177141</v>
       </c>
       <c r="J4">
-        <v>0.4757207493401125</v>
+        <v>0.2783374591724197</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.075347329405503</v>
+        <v>0.590577888846326</v>
       </c>
       <c r="M4">
-        <v>0.6897165494499546</v>
+        <v>0.4132440228912131</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.751909289637638</v>
+        <v>1.159207787650644</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1752202881170319</v>
+        <v>0.1446485558091979</v>
       </c>
       <c r="E5">
-        <v>0.2888769598932939</v>
+        <v>0.1895463900453578</v>
       </c>
       <c r="F5">
-        <v>0.9438996817668794</v>
+        <v>1.864098394403527</v>
       </c>
       <c r="G5">
-        <v>0.9903595552438702</v>
+        <v>1.322259166900892</v>
       </c>
       <c r="H5">
-        <v>0.6230387857451376</v>
+        <v>1.226387114487537</v>
       </c>
       <c r="I5">
-        <v>0.392405594220508</v>
+        <v>1.114234744015439</v>
       </c>
       <c r="J5">
-        <v>0.4615414460684804</v>
+        <v>0.2737414775024973</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.031179148517907</v>
+        <v>0.5777735137383218</v>
       </c>
       <c r="M5">
-        <v>0.6617039000841203</v>
+        <v>0.4049706831977744</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.739725139024301</v>
+        <v>1.155548452682325</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1743306908959141</v>
+        <v>0.1443610705286034</v>
       </c>
       <c r="E6">
-        <v>0.287412088497689</v>
+        <v>0.1890733417507917</v>
       </c>
       <c r="F6">
-        <v>0.9416498985447106</v>
+        <v>1.864585659762383</v>
       </c>
       <c r="G6">
-        <v>0.985815462230903</v>
+        <v>1.321931947408899</v>
       </c>
       <c r="H6">
-        <v>0.6213873284630154</v>
+        <v>1.226595695366825</v>
       </c>
       <c r="I6">
-        <v>0.3941712619661613</v>
+        <v>1.115259124470792</v>
       </c>
       <c r="J6">
-        <v>0.4591879162401824</v>
+        <v>0.2729776692742121</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.023853141206871</v>
+        <v>0.5756487828058141</v>
       </c>
       <c r="M6">
-        <v>0.6570564748907799</v>
+        <v>0.4035977201558794</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.824347757841224</v>
+        <v>1.180959319055574</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1805109817965445</v>
+        <v>0.1463529557795198</v>
       </c>
       <c r="E7">
-        <v>0.2975839943596057</v>
+        <v>0.1923535185747696</v>
       </c>
       <c r="F7">
-        <v>0.9575531947929647</v>
+        <v>1.861333964659607</v>
       </c>
       <c r="G7">
-        <v>1.017657783326797</v>
+        <v>1.324315191801318</v>
       </c>
       <c r="H7">
-        <v>0.6330180999548105</v>
+        <v>1.225225838528388</v>
       </c>
       <c r="I7">
-        <v>0.3820475391633047</v>
+        <v>1.108218923451497</v>
       </c>
       <c r="J7">
-        <v>0.4755294551473668</v>
+        <v>0.2782755198111886</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.074751100474714</v>
+        <v>0.5904051092470581</v>
       </c>
       <c r="M7">
-        <v>0.689338478793502</v>
+        <v>0.4131323910996514</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.199316977511216</v>
+        <v>1.293357955405327</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2079607461753881</v>
+        <v>0.1550546373855184</v>
       </c>
       <c r="E8">
-        <v>0.3426115562474479</v>
+        <v>0.2067460955419023</v>
       </c>
       <c r="F8">
-        <v>1.03530777626635</v>
+        <v>1.850221369799698</v>
       </c>
       <c r="G8">
-        <v>1.166226642080971</v>
+        <v>1.337614657763453</v>
       </c>
       <c r="H8">
-        <v>0.6887747216803746</v>
+        <v>1.221113442317147</v>
       </c>
       <c r="I8">
-        <v>0.3319242196888204</v>
+        <v>1.078888833289986</v>
       </c>
       <c r="J8">
-        <v>0.5478289753385042</v>
+        <v>0.3015578309370852</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.300745995197389</v>
+        <v>0.6557260199969335</v>
       </c>
       <c r="M8">
-        <v>0.8324994216093202</v>
+        <v>0.4553232177666544</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.943193654955905</v>
+        <v>1.514661959782757</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2628737961523626</v>
+        <v>0.1718069988422144</v>
       </c>
       <c r="E9">
-        <v>0.4318513220946443</v>
+        <v>0.2346705909023328</v>
       </c>
       <c r="F9">
-        <v>1.219964206754526</v>
+        <v>1.84014299644403</v>
       </c>
       <c r="G9">
-        <v>1.492889516344292</v>
+        <v>1.373812565224284</v>
       </c>
       <c r="H9">
-        <v>0.81701194608533</v>
+        <v>1.22003762924794</v>
       </c>
       <c r="I9">
-        <v>0.2469304473826321</v>
+        <v>1.027630535289772</v>
       </c>
       <c r="J9">
-        <v>0.690856883872641</v>
+        <v>0.3468568449776939</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.751287681381172</v>
+        <v>0.7845366167092607</v>
       </c>
       <c r="M9">
-        <v>1.117058590941042</v>
+        <v>0.5384581607820849</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.498194571751753</v>
+        <v>1.677761865392029</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3043719383627632</v>
+        <v>0.1839310722159269</v>
       </c>
       <c r="E10">
-        <v>0.4984689856381195</v>
+        <v>0.2550033194935608</v>
       </c>
       <c r="F10">
-        <v>1.380525875291269</v>
+        <v>1.839958738120188</v>
       </c>
       <c r="G10">
-        <v>1.761236195191572</v>
+        <v>1.406690244815763</v>
       </c>
       <c r="H10">
-        <v>0.9259257546906383</v>
+        <v>1.223550705037496</v>
       </c>
       <c r="I10">
-        <v>0.193808594183051</v>
+        <v>0.9937990857377947</v>
       </c>
       <c r="J10">
-        <v>0.7973359939115312</v>
+        <v>0.379913251899751</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.08935976292392</v>
+        <v>0.8796080617011341</v>
       </c>
       <c r="M10">
-        <v>1.329842444750369</v>
+        <v>0.5997719802066968</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.753339819194764</v>
+        <v>1.752064614082883</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3236296420751472</v>
+        <v>0.1894080953029089</v>
       </c>
       <c r="E11">
-        <v>0.5291281095395064</v>
+        <v>0.2642133602873074</v>
       </c>
       <c r="F11">
-        <v>1.460313464461677</v>
+        <v>1.841460185265447</v>
       </c>
       <c r="G11">
-        <v>1.891203301010592</v>
+        <v>1.423036699857391</v>
       </c>
       <c r="H11">
-        <v>0.9794734653619912</v>
+        <v>1.226092869790023</v>
       </c>
       <c r="I11">
-        <v>0.1719704821069596</v>
+        <v>0.9792423430363506</v>
       </c>
       <c r="J11">
-        <v>0.8462432258496051</v>
+        <v>0.3949015090186521</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.245345387355343</v>
+        <v>0.9229532113089078</v>
       </c>
       <c r="M11">
-        <v>1.427802746332887</v>
+        <v>0.6277149180869941</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.85041719468569</v>
+        <v>1.780215794938783</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3309891514281702</v>
+        <v>0.1914766880261567</v>
       </c>
       <c r="E12">
-        <v>0.5408007762684974</v>
+        <v>0.2676952511999531</v>
       </c>
       <c r="F12">
-        <v>1.49162454064809</v>
+        <v>1.842258087012098</v>
       </c>
       <c r="G12">
-        <v>1.941719009021995</v>
+        <v>1.429428551995784</v>
       </c>
       <c r="H12">
-        <v>1.000403228217976</v>
+        <v>1.227192019380823</v>
       </c>
       <c r="I12">
-        <v>0.164064377023303</v>
+        <v>0.9738502025044475</v>
       </c>
       <c r="J12">
-        <v>0.8648461538247716</v>
+        <v>0.4005699246228573</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.304790510568125</v>
+        <v>0.9393806188907661</v>
       </c>
       <c r="M12">
-        <v>1.465098049008972</v>
+        <v>0.6383032766792951</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.829488125751539</v>
+        <v>1.774152314692685</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3294009517521914</v>
+        <v>0.1910314202946211</v>
       </c>
       <c r="E13">
-        <v>0.5382838647553996</v>
+        <v>0.2669456207922138</v>
       </c>
       <c r="F13">
-        <v>1.48483015137117</v>
+        <v>1.842076022773796</v>
       </c>
       <c r="G13">
-        <v>1.930778887973872</v>
+        <v>1.428042946736781</v>
       </c>
       <c r="H13">
-        <v>0.9958652864878843</v>
+        <v>1.226949215793638</v>
       </c>
       <c r="I13">
-        <v>0.1657504372790815</v>
+        <v>0.9750061457402373</v>
       </c>
       <c r="J13">
-        <v>0.8608357313915462</v>
+        <v>0.399349458672134</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.29197012938161</v>
+        <v>0.9358420861321406</v>
       </c>
       <c r="M13">
-        <v>1.457056390722414</v>
+        <v>0.6360225795726109</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.76131676571481</v>
+        <v>1.754380347758456</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3242336926056453</v>
+        <v>0.1895783882449962</v>
       </c>
       <c r="E14">
-        <v>0.5300870968078542</v>
+        <v>0.2644999332853715</v>
       </c>
       <c r="F14">
-        <v>1.462866672553261</v>
+        <v>1.841521224962719</v>
       </c>
       <c r="G14">
-        <v>1.895332188855804</v>
+        <v>1.423558506048749</v>
       </c>
       <c r="H14">
-        <v>0.9811818199537754</v>
+        <v>1.226180557859664</v>
       </c>
       <c r="I14">
-        <v>0.1713125801390301</v>
+        <v>0.9787963177589871</v>
       </c>
       <c r="J14">
-        <v>0.8477719451571772</v>
+        <v>0.395368000810322</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.250228045829914</v>
+        <v>0.924304434667846</v>
       </c>
       <c r="M14">
-        <v>1.430866847997834</v>
+        <v>0.6285858909443789</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.719622040576496</v>
+        <v>1.742271281057413</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3210777247345504</v>
+        <v>0.1886876581253887</v>
       </c>
       <c r="E15">
-        <v>0.5250748839105057</v>
+        <v>0.2630011276181463</v>
       </c>
       <c r="F15">
-        <v>1.449560333040651</v>
+        <v>1.841211302658451</v>
       </c>
       <c r="G15">
-        <v>1.873794593488043</v>
+        <v>1.420837993837239</v>
       </c>
       <c r="H15">
-        <v>0.9722751790895927</v>
+        <v>1.225727529206182</v>
       </c>
       <c r="I15">
-        <v>0.174767803724027</v>
+        <v>0.9811335691829415</v>
       </c>
       <c r="J15">
-        <v>0.8397812734292103</v>
+        <v>0.392928284003716</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.224710820386548</v>
+        <v>0.9172390428685162</v>
       </c>
       <c r="M15">
-        <v>1.414852054387765</v>
+        <v>0.6240316023239814</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.481580239421191</v>
+        <v>1.672908075412408</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3031220690283618</v>
+        <v>0.1835723713313655</v>
       </c>
       <c r="E16">
-        <v>0.496473441426879</v>
+        <v>0.254400621268303</v>
       </c>
       <c r="F16">
-        <v>1.375457855121198</v>
+        <v>1.839892632129178</v>
       </c>
       <c r="G16">
-        <v>1.752915032465722</v>
+        <v>1.40565010192617</v>
       </c>
       <c r="H16">
-        <v>0.9225131830415307</v>
+        <v>1.223403627852207</v>
       </c>
       <c r="I16">
-        <v>0.1952849931314762</v>
+        <v>0.9947672018375515</v>
       </c>
       <c r="J16">
-        <v>0.7941505018721386</v>
+        <v>0.3789327230857964</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.07921496155501</v>
+        <v>0.8767772683046928</v>
       </c>
       <c r="M16">
-        <v>1.323466621862366</v>
+        <v>0.5979468386125291</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.336284669488293</v>
+        <v>1.630382769838832</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.29221247010193</v>
+        <v>0.1804245518699616</v>
       </c>
       <c r="E17">
-        <v>0.4790260442892063</v>
+        <v>0.249114332791379</v>
       </c>
       <c r="F17">
-        <v>1.331812228482818</v>
+        <v>1.839490672121357</v>
       </c>
       <c r="G17">
-        <v>1.680892449311017</v>
+        <v>1.396690235766982</v>
       </c>
       <c r="H17">
-        <v>0.8930627199673893</v>
+        <v>1.222220303268443</v>
       </c>
       <c r="I17">
-        <v>0.2084872676717842</v>
+        <v>1.003344680798897</v>
       </c>
       <c r="J17">
-        <v>0.7662880169746273</v>
+        <v>0.3703341175219492</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.990561359932201</v>
+        <v>0.8519797784390732</v>
       </c>
       <c r="M17">
-        <v>1.267724678634366</v>
+        <v>0.5819574805594669</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.252961089810071</v>
+        <v>1.605933551347164</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2859724876085892</v>
+        <v>0.178610402261171</v>
       </c>
       <c r="E18">
-        <v>0.4690233323363415</v>
+        <v>0.2460700939134526</v>
       </c>
       <c r="F18">
-        <v>1.307335065032348</v>
+        <v>1.839408605385586</v>
       </c>
       <c r="G18">
-        <v>1.640199101247902</v>
+        <v>1.391667499417792</v>
       </c>
       <c r="H18">
-        <v>0.8764951868108142</v>
+        <v>1.22162850036861</v>
       </c>
       <c r="I18">
-        <v>0.2162980213956005</v>
+        <v>1.008356637970956</v>
       </c>
       <c r="J18">
-        <v>0.7503054037266566</v>
+        <v>0.3653838029165399</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.939772681976564</v>
+        <v>0.837726038034134</v>
       </c>
       <c r="M18">
-        <v>1.235770779785</v>
+        <v>0.5727656432507331</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.224789354670918</v>
+        <v>1.597657255757781</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.28386538590361</v>
+        <v>0.1779955408266574</v>
       </c>
       <c r="E19">
-        <v>0.4656418463700689</v>
+        <v>0.2450387330885633</v>
       </c>
       <c r="F19">
-        <v>1.299151517657151</v>
+        <v>1.83940639040506</v>
       </c>
       <c r="G19">
-        <v>1.626542078590745</v>
+        <v>1.389989284778153</v>
       </c>
       <c r="H19">
-        <v>0.8709473330669368</v>
+        <v>1.221443357717789</v>
       </c>
       <c r="I19">
-        <v>0.2189790756099748</v>
+        <v>1.010067058448406</v>
       </c>
       <c r="J19">
-        <v>0.744900941012105</v>
+        <v>0.3637069242726483</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.922609548397645</v>
+        <v>0.8329015440551188</v>
       </c>
       <c r="M19">
-        <v>1.224969253271667</v>
+        <v>0.569654283656817</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.351725592266064</v>
+        <v>1.634908612726235</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2933701160510651</v>
+        <v>0.1807600154591853</v>
       </c>
       <c r="E20">
-        <v>0.4808798984397811</v>
+        <v>0.2496774513424498</v>
       </c>
       <c r="F20">
-        <v>1.336392652365376</v>
+        <v>1.839518017158724</v>
       </c>
       <c r="G20">
-        <v>1.688482472927546</v>
+        <v>1.397630483917993</v>
       </c>
       <c r="H20">
-        <v>0.8961587860596865</v>
+        <v>1.222337073006258</v>
       </c>
       <c r="I20">
-        <v>0.2070591891856721</v>
+        <v>1.002423475069348</v>
       </c>
       <c r="J20">
-        <v>0.769249455237798</v>
+        <v>0.3712499339978876</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.999977306763867</v>
+        <v>0.8546185723551787</v>
       </c>
       <c r="M20">
-        <v>1.273647165373617</v>
+        <v>0.5836590789257201</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.781327237824826</v>
+        <v>1.760187473558631</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3257495150581065</v>
+        <v>0.1900053259945054</v>
       </c>
       <c r="E21">
-        <v>0.5324928823942088</v>
+        <v>0.2652184477368706</v>
       </c>
       <c r="F21">
-        <v>1.469287010773343</v>
+        <v>1.841677947387367</v>
       </c>
       <c r="G21">
-        <v>1.905707048259501</v>
+        <v>1.42487020294476</v>
       </c>
       <c r="H21">
-        <v>0.9854763437221266</v>
+        <v>1.226402621226867</v>
       </c>
       <c r="I21">
-        <v>0.169668732563836</v>
+        <v>0.9776797878672081</v>
       </c>
       <c r="J21">
-        <v>0.8516067160213794</v>
+        <v>0.3965376517292896</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.262477958160815</v>
+        <v>0.9276929579073396</v>
       </c>
       <c r="M21">
-        <v>1.438553649307124</v>
+        <v>0.6307700401629575</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.064815691719446</v>
+        <v>1.842147532689978</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3473091311594771</v>
+        <v>0.1960160120913486</v>
       </c>
       <c r="E22">
-        <v>0.5665971918575892</v>
+        <v>0.2753418257886082</v>
       </c>
       <c r="F22">
-        <v>1.562607284985987</v>
+        <v>1.844426979794676</v>
       </c>
       <c r="G22">
-        <v>2.055344932239564</v>
+        <v>1.443850090270246</v>
       </c>
       <c r="H22">
-        <v>1.047696097030894</v>
+        <v>1.229855587974157</v>
       </c>
       <c r="I22">
-        <v>0.1473665079478943</v>
+        <v>0.96220903517926</v>
       </c>
       <c r="J22">
-        <v>0.905923299977303</v>
+        <v>0.4130219150217442</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.43626730299539</v>
+        <v>0.9755300586394924</v>
       </c>
       <c r="M22">
-        <v>1.547512458382286</v>
+        <v>0.661600271089128</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.913236704281474</v>
+        <v>1.798396679864197</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3357613902441869</v>
+        <v>0.1928108698676141</v>
       </c>
       <c r="E23">
-        <v>0.548356707936982</v>
+        <v>0.2699418859821492</v>
       </c>
       <c r="F23">
-        <v>1.512162733297615</v>
+        <v>1.84283694051507</v>
       </c>
       <c r="G23">
-        <v>1.97471874853349</v>
+        <v>1.433611829558203</v>
       </c>
       <c r="H23">
-        <v>1.014108406652781</v>
+        <v>1.227939605835275</v>
       </c>
       <c r="I23">
-        <v>0.1590639245723087</v>
+        <v>0.9704018391018572</v>
       </c>
       <c r="J23">
-        <v>0.8768829567122509</v>
+        <v>0.4042279362688816</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.343286401327617</v>
+        <v>0.9499914060361334</v>
       </c>
       <c r="M23">
-        <v>1.489239094020036</v>
+        <v>0.6451420063382756</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.344744106348116</v>
+        <v>1.632862481724715</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2928466452736558</v>
+        <v>0.1806083661648472</v>
       </c>
       <c r="E24">
-        <v>0.4800416845414262</v>
+        <v>0.2494228812687922</v>
       </c>
       <c r="F24">
-        <v>1.334319935645169</v>
+        <v>1.839505190368939</v>
       </c>
       <c r="G24">
-        <v>1.685048813376454</v>
+        <v>1.397204997890242</v>
       </c>
       <c r="H24">
-        <v>0.8947579267083654</v>
+        <v>1.222284005769751</v>
       </c>
       <c r="I24">
-        <v>0.2077041385222538</v>
+        <v>1.002839700986534</v>
       </c>
       <c r="J24">
-        <v>0.7679104783091901</v>
+        <v>0.370835914727877</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.995719802751353</v>
+        <v>0.853425565292838</v>
       </c>
       <c r="M24">
-        <v>1.270969322204962</v>
+        <v>0.5828897842285556</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.740722122371722</v>
+        <v>1.454701747099193</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.247855058267902</v>
+        <v>0.1673077788248492</v>
       </c>
       <c r="E25">
-        <v>0.4075627374552653</v>
+        <v>0.2271484253553666</v>
       </c>
       <c r="F25">
-        <v>1.166052808919858</v>
+        <v>1.841607274228863</v>
       </c>
       <c r="G25">
-        <v>1.400076984468001</v>
+        <v>1.362925048198179</v>
       </c>
       <c r="H25">
-        <v>0.7799894119516182</v>
+        <v>1.219576061878655</v>
       </c>
       <c r="I25">
-        <v>0.2683812998233281</v>
+        <v>1.040825982114495</v>
       </c>
       <c r="J25">
-        <v>0.65196913768267</v>
+        <v>0.3346412626350457</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.628366960461591</v>
+        <v>0.7496135466936948</v>
       </c>
       <c r="M25">
-        <v>1.039533949998955</v>
+        <v>0.5159261788612284</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.323874002307434</v>
+        <v>2.301384672434438</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1573910469263495</v>
+        <v>0.2154553729143061</v>
       </c>
       <c r="E2">
-        <v>0.2106255498562959</v>
+        <v>0.3548595433346975</v>
       </c>
       <c r="F2">
-        <v>1.848000169810419</v>
+        <v>1.058375781260963</v>
       </c>
       <c r="G2">
-        <v>1.341898598714067</v>
+        <v>1.208642972093458</v>
       </c>
       <c r="H2">
-        <v>1.220470549407452</v>
+        <v>0.7050543908846691</v>
       </c>
       <c r="I2">
-        <v>1.071364875308631</v>
+        <v>0.3192020314473076</v>
       </c>
       <c r="J2">
-        <v>0.3078422427925744</v>
+        <v>0.5674819218812246</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6734733331329892</v>
+        <v>1.362391813267209</v>
       </c>
       <c r="M2">
-        <v>0.4667821546985351</v>
+        <v>0.8715007734767823</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.235439004134491</v>
+        <v>2.005931720262424</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.150591120474445</v>
+        <v>0.1937891166737131</v>
       </c>
       <c r="E3">
-        <v>0.199351563426525</v>
+        <v>0.3193968662824958</v>
       </c>
       <c r="F3">
-        <v>1.855328665068868</v>
+        <v>0.9937806463411505</v>
       </c>
       <c r="G3">
-        <v>1.330238678936553</v>
+        <v>1.088132591852144</v>
       </c>
       <c r="H3">
-        <v>1.222864123586305</v>
+        <v>0.6591928203039856</v>
       </c>
       <c r="I3">
-        <v>1.093660492588789</v>
+        <v>0.3570771102350321</v>
       </c>
       <c r="J3">
-        <v>0.2895890715531664</v>
+        <v>0.5105625722812306</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6220564915655302</v>
+        <v>1.184098546581936</v>
       </c>
       <c r="M3">
-        <v>0.4335791087960317</v>
+        <v>0.7586424921350527</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.181256805577306</v>
+        <v>1.825338662675676</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1463762148200374</v>
+        <v>0.1805833768969762</v>
       </c>
       <c r="E4">
-        <v>0.1923918558679532</v>
+        <v>0.2977030767956705</v>
       </c>
       <c r="F4">
-        <v>1.861297682897373</v>
+        <v>0.9577432148842604</v>
       </c>
       <c r="G4">
-        <v>1.324344595726032</v>
+        <v>1.018034510572392</v>
       </c>
       <c r="H4">
-        <v>1.225210864891849</v>
+        <v>0.6331564916461474</v>
       </c>
       <c r="I4">
-        <v>1.108137494177141</v>
+        <v>0.3819074736425727</v>
       </c>
       <c r="J4">
-        <v>0.2783374591724197</v>
+        <v>0.475720749340141</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.590577888846326</v>
+        <v>1.075347329405503</v>
       </c>
       <c r="M4">
-        <v>0.4132440228912131</v>
+        <v>0.6897165494499404</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.159207787650644</v>
+        <v>1.751909289637751</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1446485558091979</v>
+        <v>0.175220288116833</v>
       </c>
       <c r="E5">
-        <v>0.1895463900453578</v>
+        <v>0.2888769598932939</v>
       </c>
       <c r="F5">
-        <v>1.864098394403527</v>
+        <v>0.9438996817668652</v>
       </c>
       <c r="G5">
-        <v>1.322259166900892</v>
+        <v>0.9903595552438134</v>
       </c>
       <c r="H5">
-        <v>1.226387114487537</v>
+        <v>0.6230387857451518</v>
       </c>
       <c r="I5">
-        <v>1.114234744015439</v>
+        <v>0.3924055942205049</v>
       </c>
       <c r="J5">
-        <v>0.2737414775024973</v>
+        <v>0.4615414460684661</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5777735137383218</v>
+        <v>1.03117914851785</v>
       </c>
       <c r="M5">
-        <v>0.4049706831977744</v>
+        <v>0.6617039000841132</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.155548452682325</v>
+        <v>1.739725139024443</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1443610705286034</v>
+        <v>0.1743306908960136</v>
       </c>
       <c r="E6">
-        <v>0.1890733417507917</v>
+        <v>0.2874120884977103</v>
       </c>
       <c r="F6">
-        <v>1.864585659762383</v>
+        <v>0.9416498985446964</v>
       </c>
       <c r="G6">
-        <v>1.321931947408899</v>
+        <v>0.9858154622309314</v>
       </c>
       <c r="H6">
-        <v>1.226595695366825</v>
+        <v>0.6213873284631291</v>
       </c>
       <c r="I6">
-        <v>1.115259124470792</v>
+        <v>0.3941712619661542</v>
       </c>
       <c r="J6">
-        <v>0.2729776692742121</v>
+        <v>0.459187916240225</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5756487828058141</v>
+        <v>1.023853141206843</v>
       </c>
       <c r="M6">
-        <v>0.4035977201558794</v>
+        <v>0.6570564748907657</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.180959319055574</v>
+        <v>1.824347757841224</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1463529557795198</v>
+        <v>0.1805109817965587</v>
       </c>
       <c r="E7">
-        <v>0.1923535185747696</v>
+        <v>0.2975839943596199</v>
       </c>
       <c r="F7">
-        <v>1.861333964659607</v>
+        <v>0.9575531947929505</v>
       </c>
       <c r="G7">
-        <v>1.324315191801318</v>
+        <v>1.017657783326726</v>
       </c>
       <c r="H7">
-        <v>1.225225838528388</v>
+        <v>0.6330180999549242</v>
       </c>
       <c r="I7">
-        <v>1.108218923451497</v>
+        <v>0.3820475391632865</v>
       </c>
       <c r="J7">
-        <v>0.2782755198111886</v>
+        <v>0.4755294551473384</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5904051092470581</v>
+        <v>1.074751100474828</v>
       </c>
       <c r="M7">
-        <v>0.4131323910996514</v>
+        <v>0.6893384787934878</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.293357955405327</v>
+        <v>2.199316977511216</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1550546373855184</v>
+        <v>0.2079607461754733</v>
       </c>
       <c r="E8">
-        <v>0.2067460955419023</v>
+        <v>0.3426115562474479</v>
       </c>
       <c r="F8">
-        <v>1.850221369799698</v>
+        <v>1.03530777626635</v>
       </c>
       <c r="G8">
-        <v>1.337614657763453</v>
+        <v>1.166226642080943</v>
       </c>
       <c r="H8">
-        <v>1.221113442317147</v>
+        <v>0.6887747216803177</v>
       </c>
       <c r="I8">
-        <v>1.078888833289986</v>
+        <v>0.3319242196888017</v>
       </c>
       <c r="J8">
-        <v>0.3015578309370852</v>
+        <v>0.5478289753384473</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6557260199969335</v>
+        <v>1.300745995197502</v>
       </c>
       <c r="M8">
-        <v>0.4553232177666544</v>
+        <v>0.832499421609306</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.514661959782757</v>
+        <v>2.943193654955621</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1718069988422144</v>
+        <v>0.2628737961522631</v>
       </c>
       <c r="E9">
-        <v>0.2346705909023328</v>
+        <v>0.4318513220946443</v>
       </c>
       <c r="F9">
-        <v>1.84014299644403</v>
+        <v>1.219964206754526</v>
       </c>
       <c r="G9">
-        <v>1.373812565224284</v>
+        <v>1.49288951634432</v>
       </c>
       <c r="H9">
-        <v>1.22003762924794</v>
+        <v>0.8170119460852447</v>
       </c>
       <c r="I9">
-        <v>1.027630535289772</v>
+        <v>0.2469304473826437</v>
       </c>
       <c r="J9">
-        <v>0.3468568449776939</v>
+        <v>0.6908568838727689</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7845366167092607</v>
+        <v>1.7512876813812</v>
       </c>
       <c r="M9">
-        <v>0.5384581607820849</v>
+        <v>1.117058590941042</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.677761865392029</v>
+        <v>3.498194571751753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1839310722159269</v>
+        <v>0.3043719383626495</v>
       </c>
       <c r="E10">
-        <v>0.2550033194935608</v>
+        <v>0.4984689856380911</v>
       </c>
       <c r="F10">
-        <v>1.839958738120188</v>
+        <v>1.380525875291241</v>
       </c>
       <c r="G10">
-        <v>1.406690244815763</v>
+        <v>1.7612361951916</v>
       </c>
       <c r="H10">
-        <v>1.223550705037496</v>
+        <v>0.9259257546905246</v>
       </c>
       <c r="I10">
-        <v>0.9937990857377947</v>
+        <v>0.193808594183051</v>
       </c>
       <c r="J10">
-        <v>0.379913251899751</v>
+        <v>0.7973359939114459</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8796080617011341</v>
+        <v>2.089359762924147</v>
       </c>
       <c r="M10">
-        <v>0.5997719802066968</v>
+        <v>1.329842444750383</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.752064614082883</v>
+        <v>3.753339819194821</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1894080953029089</v>
+        <v>0.3236296420752325</v>
       </c>
       <c r="E11">
-        <v>0.2642133602873074</v>
+        <v>0.5291281095395064</v>
       </c>
       <c r="F11">
-        <v>1.841460185265447</v>
+        <v>1.460313464461663</v>
       </c>
       <c r="G11">
-        <v>1.423036699857391</v>
+        <v>1.891203301010563</v>
       </c>
       <c r="H11">
-        <v>1.226092869790023</v>
+        <v>0.9794734653619912</v>
       </c>
       <c r="I11">
-        <v>0.9792423430363506</v>
+        <v>0.1719704821069783</v>
       </c>
       <c r="J11">
-        <v>0.3949015090186521</v>
+        <v>0.8462432258495483</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9229532113089078</v>
+        <v>2.245345387355201</v>
       </c>
       <c r="M11">
-        <v>0.6277149180869941</v>
+        <v>1.427802746332915</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.780215794938783</v>
+        <v>3.850417194685519</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1914766880261567</v>
+        <v>0.3309891514280423</v>
       </c>
       <c r="E12">
-        <v>0.2676952511999531</v>
+        <v>0.5408007762684832</v>
       </c>
       <c r="F12">
-        <v>1.842258087012098</v>
+        <v>1.491624540648118</v>
       </c>
       <c r="G12">
-        <v>1.429428551995784</v>
+        <v>1.941719009022052</v>
       </c>
       <c r="H12">
-        <v>1.227192019380823</v>
+        <v>1.000403228217976</v>
       </c>
       <c r="I12">
-        <v>0.9738502025044475</v>
+        <v>0.1640643770232999</v>
       </c>
       <c r="J12">
-        <v>0.4005699246228573</v>
+        <v>0.8648461538247147</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9393806188907661</v>
+        <v>2.304790510568068</v>
       </c>
       <c r="M12">
-        <v>0.6383032766792951</v>
+        <v>1.465098049008986</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.774152314692685</v>
+        <v>3.829488125751425</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1910314202946211</v>
+        <v>0.3294009517522767</v>
       </c>
       <c r="E13">
-        <v>0.2669456207922138</v>
+        <v>0.5382838647554138</v>
       </c>
       <c r="F13">
-        <v>1.842076022773796</v>
+        <v>1.484830151371185</v>
       </c>
       <c r="G13">
-        <v>1.428042946736781</v>
+        <v>1.930778887973958</v>
       </c>
       <c r="H13">
-        <v>1.226949215793638</v>
+        <v>0.9958652864878843</v>
       </c>
       <c r="I13">
-        <v>0.9750061457402373</v>
+        <v>0.1657504372790757</v>
       </c>
       <c r="J13">
-        <v>0.399349458672134</v>
+        <v>0.860835731391532</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9358420861321406</v>
+        <v>2.291970129381468</v>
       </c>
       <c r="M13">
-        <v>0.6360225795726109</v>
+        <v>1.457056390722428</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.754380347758456</v>
+        <v>3.76131676571498</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1895783882449962</v>
+        <v>0.3242336926057163</v>
       </c>
       <c r="E14">
-        <v>0.2644999332853715</v>
+        <v>0.5300870968078684</v>
       </c>
       <c r="F14">
-        <v>1.841521224962719</v>
+        <v>1.462866672553261</v>
       </c>
       <c r="G14">
-        <v>1.423558506048749</v>
+        <v>1.895332188855832</v>
       </c>
       <c r="H14">
-        <v>1.226180557859664</v>
+        <v>0.9811818199538891</v>
       </c>
       <c r="I14">
-        <v>0.9787963177589871</v>
+        <v>0.1713125801390305</v>
       </c>
       <c r="J14">
-        <v>0.395368000810322</v>
+        <v>0.847771945157092</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.924304434667846</v>
+        <v>2.250228045829829</v>
       </c>
       <c r="M14">
-        <v>0.6285858909443789</v>
+        <v>1.430866847997848</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.742271281057413</v>
+        <v>3.719622040576155</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1886876581253887</v>
+        <v>0.3210777247346215</v>
       </c>
       <c r="E15">
-        <v>0.2630011276181463</v>
+        <v>0.5250748839104986</v>
       </c>
       <c r="F15">
-        <v>1.841211302658451</v>
+        <v>1.449560333040665</v>
       </c>
       <c r="G15">
-        <v>1.420837993837239</v>
+        <v>1.873794593488014</v>
       </c>
       <c r="H15">
-        <v>1.225727529206182</v>
+        <v>0.9722751790897348</v>
       </c>
       <c r="I15">
-        <v>0.9811335691829415</v>
+        <v>0.1747678037240088</v>
       </c>
       <c r="J15">
-        <v>0.392928284003716</v>
+        <v>0.839781273429125</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9172390428685162</v>
+        <v>2.224710820386576</v>
       </c>
       <c r="M15">
-        <v>0.6240316023239814</v>
+        <v>1.414852054387765</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.672908075412408</v>
+        <v>3.481580239421135</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1835723713313655</v>
+        <v>0.3031220690282481</v>
       </c>
       <c r="E16">
-        <v>0.254400621268303</v>
+        <v>0.4964734414268719</v>
       </c>
       <c r="F16">
-        <v>1.839892632129178</v>
+        <v>1.375457855121184</v>
       </c>
       <c r="G16">
-        <v>1.40565010192617</v>
+        <v>1.752915032465694</v>
       </c>
       <c r="H16">
-        <v>1.223403627852207</v>
+        <v>0.9225131830414171</v>
       </c>
       <c r="I16">
-        <v>0.9947672018375515</v>
+        <v>0.1952849931314704</v>
       </c>
       <c r="J16">
-        <v>0.3789327230857964</v>
+        <v>0.794150501872096</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8767772683046928</v>
+        <v>2.079214961555209</v>
       </c>
       <c r="M16">
-        <v>0.5979468386125291</v>
+        <v>1.323466621862352</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.630382769838832</v>
+        <v>3.33628466948835</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1804245518699616</v>
+        <v>0.2922124701018021</v>
       </c>
       <c r="E17">
-        <v>0.249114332791379</v>
+        <v>0.4790260442891778</v>
       </c>
       <c r="F17">
-        <v>1.839490672121357</v>
+        <v>1.331812228482818</v>
       </c>
       <c r="G17">
-        <v>1.396690235766982</v>
+        <v>1.680892449310988</v>
       </c>
       <c r="H17">
-        <v>1.222220303268443</v>
+        <v>0.8930627199673893</v>
       </c>
       <c r="I17">
-        <v>1.003344680798897</v>
+        <v>0.2084872676717775</v>
       </c>
       <c r="J17">
-        <v>0.3703341175219492</v>
+        <v>0.7662880169746416</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8519797784390732</v>
+        <v>1.990561359932173</v>
       </c>
       <c r="M17">
-        <v>0.5819574805594669</v>
+        <v>1.267724678634366</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.605933551347164</v>
+        <v>3.252961089810128</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.178610402261171</v>
+        <v>0.2859724876083618</v>
       </c>
       <c r="E18">
-        <v>0.2460700939134526</v>
+        <v>0.4690233323363131</v>
       </c>
       <c r="F18">
-        <v>1.839408605385586</v>
+        <v>1.307335065032348</v>
       </c>
       <c r="G18">
-        <v>1.391667499417792</v>
+        <v>1.640199101247873</v>
       </c>
       <c r="H18">
-        <v>1.22162850036861</v>
+        <v>0.8764951868109279</v>
       </c>
       <c r="I18">
-        <v>1.008356637970956</v>
+        <v>0.2162980213955983</v>
       </c>
       <c r="J18">
-        <v>0.3653838029165399</v>
+        <v>0.7503054037266992</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.837726038034134</v>
+        <v>1.939772681976564</v>
       </c>
       <c r="M18">
-        <v>0.5727656432507331</v>
+        <v>1.235770779785</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.597657255757781</v>
+        <v>3.224789354671032</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1779955408266574</v>
+        <v>0.2838653859034252</v>
       </c>
       <c r="E19">
-        <v>0.2450387330885633</v>
+        <v>0.4656418463700547</v>
       </c>
       <c r="F19">
-        <v>1.83940639040506</v>
+        <v>1.299151517657165</v>
       </c>
       <c r="G19">
-        <v>1.389989284778153</v>
+        <v>1.626542078590802</v>
       </c>
       <c r="H19">
-        <v>1.221443357717789</v>
+        <v>0.8709473330670505</v>
       </c>
       <c r="I19">
-        <v>1.010067058448406</v>
+        <v>0.2189790756099934</v>
       </c>
       <c r="J19">
-        <v>0.3637069242726483</v>
+        <v>0.7449009410121334</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8329015440551188</v>
+        <v>1.922609548397787</v>
       </c>
       <c r="M19">
-        <v>0.569654283656817</v>
+        <v>1.224969253271624</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.634908612726235</v>
+        <v>3.35172559226595</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1807600154591853</v>
+        <v>0.2933701160510509</v>
       </c>
       <c r="E20">
-        <v>0.2496774513424498</v>
+        <v>0.4808798984397313</v>
       </c>
       <c r="F20">
-        <v>1.839518017158724</v>
+        <v>1.336392652365376</v>
       </c>
       <c r="G20">
-        <v>1.397630483917993</v>
+        <v>1.688482472927461</v>
       </c>
       <c r="H20">
-        <v>1.222337073006258</v>
+        <v>0.8961587860597149</v>
       </c>
       <c r="I20">
-        <v>1.002423475069348</v>
+        <v>0.2070591891856726</v>
       </c>
       <c r="J20">
-        <v>0.3712499339978876</v>
+        <v>0.7692494552378406</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8546185723551787</v>
+        <v>1.999977306763583</v>
       </c>
       <c r="M20">
-        <v>0.5836590789257201</v>
+        <v>1.273647165373575</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.760187473558631</v>
+        <v>3.781327237824939</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1900053259945054</v>
+        <v>0.3257495150583054</v>
       </c>
       <c r="E21">
-        <v>0.2652184477368706</v>
+        <v>0.5324928823942159</v>
       </c>
       <c r="F21">
-        <v>1.841677947387367</v>
+        <v>1.469287010773357</v>
       </c>
       <c r="G21">
-        <v>1.42487020294476</v>
+        <v>1.905707048259615</v>
       </c>
       <c r="H21">
-        <v>1.226402621226867</v>
+        <v>0.9854763437220981</v>
       </c>
       <c r="I21">
-        <v>0.9776797878672081</v>
+        <v>0.1696687325638355</v>
       </c>
       <c r="J21">
-        <v>0.3965376517292896</v>
+        <v>0.8516067160213652</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9276929579073396</v>
+        <v>2.262477958160844</v>
       </c>
       <c r="M21">
-        <v>0.6307700401629575</v>
+        <v>1.438553649307124</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.842147532689978</v>
+        <v>4.064815691719616</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1960160120913486</v>
+        <v>0.3473091311594771</v>
       </c>
       <c r="E22">
-        <v>0.2753418257886082</v>
+        <v>0.5665971918576176</v>
       </c>
       <c r="F22">
-        <v>1.844426979794676</v>
+        <v>1.562607284985972</v>
       </c>
       <c r="G22">
-        <v>1.443850090270246</v>
+        <v>2.055344932239592</v>
       </c>
       <c r="H22">
-        <v>1.229855587974157</v>
+        <v>1.047696097031007</v>
       </c>
       <c r="I22">
-        <v>0.96220903517926</v>
+        <v>0.147366507947889</v>
       </c>
       <c r="J22">
-        <v>0.4130219150217442</v>
+        <v>0.9059232999772462</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9755300586394924</v>
+        <v>2.436267302995418</v>
       </c>
       <c r="M22">
-        <v>0.661600271089128</v>
+        <v>1.547512458382272</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.798396679864197</v>
+        <v>3.913236704281303</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1928108698676141</v>
+        <v>0.3357613902443148</v>
       </c>
       <c r="E23">
-        <v>0.2699418859821492</v>
+        <v>0.5483567079369749</v>
       </c>
       <c r="F23">
-        <v>1.84283694051507</v>
+        <v>1.5121627332976</v>
       </c>
       <c r="G23">
-        <v>1.433611829558203</v>
+        <v>1.97471874853349</v>
       </c>
       <c r="H23">
-        <v>1.227939605835275</v>
+        <v>1.014108406652895</v>
       </c>
       <c r="I23">
-        <v>0.9704018391018572</v>
+        <v>0.1590639245723162</v>
       </c>
       <c r="J23">
-        <v>0.4042279362688816</v>
+        <v>0.8768829567122225</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9499914060361334</v>
+        <v>2.343286401327703</v>
       </c>
       <c r="M23">
-        <v>0.6451420063382756</v>
+        <v>1.489239094020007</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.632862481724715</v>
+        <v>3.344744106347889</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1806083661648472</v>
+        <v>0.2928466452735705</v>
       </c>
       <c r="E24">
-        <v>0.2494228812687922</v>
+        <v>0.4800416845414475</v>
       </c>
       <c r="F24">
-        <v>1.839505190368939</v>
+        <v>1.334319935645169</v>
       </c>
       <c r="G24">
-        <v>1.397204997890242</v>
+        <v>1.685048813376483</v>
       </c>
       <c r="H24">
-        <v>1.222284005769751</v>
+        <v>0.8947579267083654</v>
       </c>
       <c r="I24">
-        <v>1.002839700986534</v>
+        <v>0.2077041385222516</v>
       </c>
       <c r="J24">
-        <v>0.370835914727877</v>
+        <v>0.7679104783092043</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.853425565292838</v>
+        <v>1.995719802751438</v>
       </c>
       <c r="M24">
-        <v>0.5828897842285556</v>
+        <v>1.270969322204976</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.454701747099193</v>
+        <v>2.740722122371665</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1673077788248492</v>
+        <v>0.247855058267902</v>
       </c>
       <c r="E25">
-        <v>0.2271484253553666</v>
+        <v>0.4075627374552511</v>
       </c>
       <c r="F25">
-        <v>1.841607274228863</v>
+        <v>1.166052808919858</v>
       </c>
       <c r="G25">
-        <v>1.362925048198179</v>
+        <v>1.400076984467972</v>
       </c>
       <c r="H25">
-        <v>1.219576061878655</v>
+        <v>0.7799894119516182</v>
       </c>
       <c r="I25">
-        <v>1.040825982114495</v>
+        <v>0.2683812998233437</v>
       </c>
       <c r="J25">
-        <v>0.3346412626350457</v>
+        <v>0.6519691376826984</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7496135466936948</v>
+        <v>1.628366960461648</v>
       </c>
       <c r="M25">
-        <v>0.5159261788612284</v>
+        <v>1.039533949998933</v>
       </c>
       <c r="N25">
         <v>0</v>
